--- a/rhla_analysis/rhla1_6_exp_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k5.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009048947743133955</v>
+        <v>0.01005616936883803</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2639258881078498</v>
+        <v>0.2657319103984245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1990622335890878</v>
+        <v>0.1422267481330618</v>
       </c>
       <c r="D2" t="n">
-        <v>29.16647278774575</v>
+        <v>26.42476480377033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0148489317449664</v>
+        <v>0.01304241976236869</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2906037866160797</v>
+        <v>0.2873310866700407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1982097186700767</v>
+        <v>0.143245078071962</v>
       </c>
       <c r="D3" t="n">
-        <v>19.57068640406342</v>
+        <v>22.03050445432507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02392907612318116</v>
+        <v>0.02093636609245731</v>
       </c>
       <c r="B4" t="n">
-        <v>0.291073231109553</v>
+        <v>0.290804852993793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1884057971014493</v>
+        <v>0.1364562118126273</v>
       </c>
       <c r="D4" t="n">
-        <v>12.16399787485224</v>
+        <v>13.88993924301699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005152032365305634</v>
+        <v>0.004166350360694017</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2960592592345508</v>
+        <v>0.2988494477103672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.184995737425405</v>
+        <v>0.1323828920570265</v>
       </c>
       <c r="D5" t="n">
-        <v>57.46455733241259</v>
+        <v>71.72931266889081</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008726206146242366</v>
+        <v>0.008233417689039683</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2775486181439324</v>
+        <v>0.276003041099726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1969309462915601</v>
+        <v>0.1452817379497624</v>
       </c>
       <c r="D6" t="n">
-        <v>31.80633295758764</v>
+        <v>33.52229311372615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005939331709830043</v>
+        <v>0.006059693937962391</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2886818930485786</v>
+        <v>0.2871733761720123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1815856777493606</v>
+        <v>0.136795655125594</v>
       </c>
       <c r="D7" t="n">
-        <v>48.60511369836243</v>
+        <v>47.39073938585356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01737382996324833</v>
+        <v>0.01823316470801684</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3013443966362375</v>
+        <v>0.3007438787036905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1781756180733163</v>
+        <v>0.1296673455532926</v>
       </c>
       <c r="D8" t="n">
-        <v>17.34473039471926</v>
+        <v>16.49433236192168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01564076917505787</v>
+        <v>0.01411372179200032</v>
       </c>
       <c r="B9" t="n">
-        <v>0.293812139774083</v>
+        <v>0.2980867235378021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2071611253196931</v>
+        <v>0.1446028513238289</v>
       </c>
       <c r="D9" t="n">
-        <v>18.78501859375441</v>
+        <v>21.12034854667166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004259921203081754</v>
+        <v>0.004853513187055622</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3188304945520314</v>
+        <v>0.3186911031078392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1913895993179881</v>
+        <v>0.1405295315682281</v>
       </c>
       <c r="D10" t="n">
-        <v>74.84422348502126</v>
+        <v>65.66194235503309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01472117108988208</v>
+        <v>0.01602242163286285</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2754150932250929</v>
+        <v>0.2756218138667965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.190537084398977</v>
+        <v>0.1289884589273591</v>
       </c>
       <c r="D11" t="n">
-        <v>18.7087760575235</v>
+        <v>17.2022569485677</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01005616936883803</v>
+        <v>0.01005616936883813</v>
       </c>
       <c r="B2" t="n">
         <v>0.2657319103984245</v>
@@ -466,54 +466,54 @@
         <v>0.1422267481330618</v>
       </c>
       <c r="D2" t="n">
-        <v>26.42476480377033</v>
+        <v>26.42476480377008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01304241976236869</v>
+        <v>0.01304241976236862</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2873310866700407</v>
+        <v>0.2873310866700406</v>
       </c>
       <c r="C3" t="n">
         <v>0.143245078071962</v>
       </c>
       <c r="D3" t="n">
-        <v>22.03050445432507</v>
+        <v>22.03050445432519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02093636609245731</v>
+        <v>0.02093636609245742</v>
       </c>
       <c r="B4" t="n">
-        <v>0.290804852993793</v>
+        <v>0.2908048529937931</v>
       </c>
       <c r="C4" t="n">
         <v>0.1364562118126273</v>
       </c>
       <c r="D4" t="n">
-        <v>13.88993924301699</v>
+        <v>13.88993924301692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004166350360694017</v>
+        <v>0.004166350360694003</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2988494477103672</v>
+        <v>0.2988494477103673</v>
       </c>
       <c r="C5" t="n">
         <v>0.1323828920570265</v>
       </c>
       <c r="D5" t="n">
-        <v>71.72931266889081</v>
+        <v>71.72931266889107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008233417689039683</v>
+        <v>0.008233417689039711</v>
       </c>
       <c r="B6" t="n">
         <v>0.276003041099726</v>
@@ -522,12 +522,12 @@
         <v>0.1452817379497624</v>
       </c>
       <c r="D6" t="n">
-        <v>33.52229311372615</v>
+        <v>33.52229311372604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006059693937962391</v>
+        <v>0.00605969393796242</v>
       </c>
       <c r="B7" t="n">
         <v>0.2871733761720123</v>
@@ -536,12 +536,12 @@
         <v>0.136795655125594</v>
       </c>
       <c r="D7" t="n">
-        <v>47.39073938585356</v>
+        <v>47.39073938585333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01823316470801684</v>
+        <v>0.01823316470801693</v>
       </c>
       <c r="B8" t="n">
         <v>0.3007438787036905</v>
@@ -550,12 +550,12 @@
         <v>0.1296673455532926</v>
       </c>
       <c r="D8" t="n">
-        <v>16.49433236192168</v>
+        <v>16.49433236192161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01411372179200032</v>
+        <v>0.01411372179200026</v>
       </c>
       <c r="B9" t="n">
         <v>0.2980867235378021</v>
@@ -564,12 +564,12 @@
         <v>0.1446028513238289</v>
       </c>
       <c r="D9" t="n">
-        <v>21.12034854667166</v>
+        <v>21.12034854667175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004853513187055622</v>
+        <v>0.004853513187055629</v>
       </c>
       <c r="B10" t="n">
         <v>0.3186911031078392</v>
@@ -578,12 +578,12 @@
         <v>0.1405295315682281</v>
       </c>
       <c r="D10" t="n">
-        <v>65.66194235503309</v>
+        <v>65.66194235503301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01602242163286285</v>
+        <v>0.0160224216328628</v>
       </c>
       <c r="B11" t="n">
         <v>0.2756218138667965</v>
@@ -592,7 +592,7 @@
         <v>0.1289884589273591</v>
       </c>
       <c r="D11" t="n">
-        <v>17.2022569485677</v>
+        <v>17.20225694856775</v>
       </c>
     </row>
   </sheetData>
